--- a/biology/Zoologie/Celestus_curtissi/Celestus_curtissi.xlsx
+++ b/biology/Zoologie/Celestus_curtissi/Celestus_curtissi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celestus curtissi est une espèce de sauriens de la famille des Diploglossidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celestus curtissi est une espèce de sauriens de la famille des Diploglossidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Hispaniola.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 mai 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 mai 2012) :
 Celestus curtissi aporus Schwartz, 1964
 Celestus curtissi curtissi Grant, 1951
 Celestus curtissi diastatus Schwartz, 1964
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Anthony Curtiss[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Anthony Curtiss.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grant, 1951 : The specific characters of the Celesti, with description of anew species of Celestus (Sauria: Anguidae). Copeia, vol. 1951, no 1, p. 67-69.
 Schwartz, 1964 : Diploglossus costatus Cope (Sauria: Anguidae) and its relatives in Hispaniola. Reading Public Museum and Art Gallery, Scientific Publications, no 13, p. 1-57.</t>
